--- a/algo.xlsx
+++ b/algo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrBen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B5A3A-6403-455C-B521-B8F70D41FFDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B116168-F8AC-4FFC-9903-8FFB9E9CE75B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="645" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>on garde</t>
   </si>
@@ -90,13 +90,40 @@
     <t>9d</t>
   </si>
   <si>
-    <t>22c</t>
-  </si>
-  <si>
     <t>11e</t>
   </si>
   <si>
     <t>a-c-d-e-f</t>
+  </si>
+  <si>
+    <t>15a</t>
+  </si>
+  <si>
+    <t>24b</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>16d</t>
+  </si>
+  <si>
+    <t>12c</t>
+  </si>
+  <si>
+    <t>14f</t>
+  </si>
+  <si>
+    <t>a-b-d-c-f-e</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>a-b-c-f-e</t>
+  </si>
+  <si>
+    <t>car meme valeur</t>
   </si>
 </sst>
 </file>
@@ -433,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>4</v>
@@ -724,7 +751,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>6</v>
@@ -732,7 +759,158 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
